--- a/spreadsheet/Hollard Branch List (Victor) 20170805 1050.xlsx
+++ b/spreadsheet/Hollard Branch List (Victor) 20170805 1050.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hollard Branches" sheetId="6" r:id="rId3"/>
     <sheet name="Boxer Retail Branch" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2384,7 +2384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2394,9 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2728,12 +2726,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="77" style="48" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="25" style="49" customWidth="1"/>
     <col min="7" max="7" width="187.140625" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="64.85546875" style="48" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="48"/>
@@ -3868,15 +3866,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A52"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
     <col min="16" max="18" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
@@ -7186,15 +7183,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="102.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
